--- a/Testivaatimukset_poytakirja.xlsx
+++ b/Testivaatimukset_poytakirja.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cerz/Documents/gitrepos/s-asema/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969AD83F-4537-934B-8705-82C3491880ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21540" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Testitapaukset" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Testitapaukset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,75 +25,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">Testi id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pvm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testaaja(t)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaatimus (joka todennetaan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuvaus (miten todennetaan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raja-arvo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYV/HYL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A(a)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL,JS,SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a)	Arduino input signal must be &lt; 5.0 V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waveformgeneraattorilla jos annetaan yli 5v, voidaan todentaa että oparin apu jännitteet rajaavat sisääntulo jännitteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; 5.0V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1(b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b)	Arduino input signal must be &gt; 0.0 V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oparin toinen pää on kytketty maihin joten se on aina yli 0V ei tule -V:ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;0.0V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25 V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2(c)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+  <si>
+    <t>Testi id</t>
+  </si>
+  <si>
+    <t>Pvm</t>
+  </si>
+  <si>
+    <t>Testaaja(t)</t>
+  </si>
+  <si>
+    <t>Vaatimus (joka todennetaan)</t>
+  </si>
+  <si>
+    <t>Kuvaus (miten todennetaan)</t>
+  </si>
+  <si>
+    <t>Raja-arvo</t>
+  </si>
+  <si>
+    <t>Tulos</t>
+  </si>
+  <si>
+    <t>HYV/HYL</t>
+  </si>
+  <si>
+    <t>A(a)</t>
+  </si>
+  <si>
+    <t>NL,JS,SS</t>
+  </si>
+  <si>
+    <t>a)	Arduino input signal must be &lt; 5.0 V</t>
+  </si>
+  <si>
+    <t>waveformgeneraattorilla jos annetaan yli 5v, voidaan todentaa että oparin apu jännitteet rajaavat sisääntulo jännitteen</t>
+  </si>
+  <si>
+    <t>&lt; 5.0V</t>
+  </si>
+  <si>
+    <t>4.95V</t>
+  </si>
+  <si>
+    <t>HYV</t>
+  </si>
+  <si>
+    <t>A1(b)</t>
+  </si>
+  <si>
+    <t>b)	Arduino input signal must be &gt; 0.0 V</t>
+  </si>
+  <si>
+    <t>Oparin toinen pää on kytketty maihin joten se on aina yli 0V ei tule -V:ja</t>
+  </si>
+  <si>
+    <t>&gt;0.0V</t>
+  </si>
+  <si>
+    <t>0.25 V</t>
+  </si>
+  <si>
+    <t>A2(c)</t>
   </si>
   <si>
     <t xml:space="preserve">c)	Application circuit load to signal box must be (+/-) &lt; 50 µA </t>
   </si>
   <si>
-    <t xml:space="preserve">Varmistettu 120k ohmin vastuksella</t>
+    <t>Varmistettu 120k ohmin vastuksella</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;50 µA </t>
@@ -97,130 +102,135 @@
     <t xml:space="preserve">41 µA </t>
   </si>
   <si>
-    <t xml:space="preserve">A3(d)</t>
+    <t>A3(d)</t>
   </si>
   <si>
     <t xml:space="preserve">d)	In case of malfunction or short circuit (5 V) the Arduino input signal can’t cause more than 2 mA short circuit current. </t>
   </si>
   <si>
-    <t xml:space="preserve">Varmistettu 2,7k ohmin vastuksella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;2mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,8mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A4(e)</t>
+    <t>Varmistettu 2,7k ohmin vastuksella</t>
+  </si>
+  <si>
+    <t>&lt;2mA</t>
+  </si>
+  <si>
+    <t>1,8mA</t>
+  </si>
+  <si>
+    <t>A4(e)</t>
   </si>
   <si>
     <t xml:space="preserve">e)	In case of malfunction or short circuit (5 V) the application circuit input signal can’t cause more than 0.1 mA short-circuit current. </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;0.1mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5(f)</t>
+    <t>&lt;0.1mA</t>
+  </si>
+  <si>
+    <t>A5(f)</t>
   </si>
   <si>
     <t xml:space="preserve">f)	If Usgb has noise, it must be filtered with the teams circuit application </t>
   </si>
   <si>
-    <t xml:space="preserve">Konkalla leikataan korkeat taajuudet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;20kHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-4kHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temp -10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"-10 sisäänmeno jännite 0.5V ulosjännite 3kertainen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mittaamalla sisäänmeno jännite ja ulostulo jännite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temp 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"0 sisäänmeno jännite 0.83V ulosjännite 3kertainen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temp +10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1.2 sisäänmeno jännite 3.6V ulosjännite 3kertainen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temp +20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1.5 sisäänmeno jännite 4.5V ulosjännite 3kertainen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temp +25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1.65 sisäänmeno jännite 4.95V ulosjännite 3kertainen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
+    <t>Konkalla leikataan korkeat taajuudet</t>
+  </si>
+  <si>
+    <t>&gt;20kHz</t>
+  </si>
+  <si>
+    <t>2-4kHz</t>
+  </si>
+  <si>
+    <t>Temp -10</t>
+  </si>
+  <si>
+    <t>"-10 sisäänmeno jännite 0.5V ulosjännite 3kertainen</t>
+  </si>
+  <si>
+    <t>Mittaamalla sisäänmeno jännite ja ulostulo jännite</t>
+  </si>
+  <si>
+    <t>1.5V</t>
+  </si>
+  <si>
+    <t>Temp 0</t>
+  </si>
+  <si>
+    <t>"0 sisäänmeno jännite 0.83V ulosjännite 3kertainen</t>
+  </si>
+  <si>
+    <t>2.5V</t>
+  </si>
+  <si>
+    <t>Temp +10</t>
+  </si>
+  <si>
+    <t>"1.2 sisäänmeno jännite 3.6V ulosjännite 3kertainen</t>
+  </si>
+  <si>
+    <t>3.6V</t>
+  </si>
+  <si>
+    <t>Temp +20</t>
+  </si>
+  <si>
+    <t>"1.5 sisäänmeno jännite 4.5V ulosjännite 3kertainen</t>
+  </si>
+  <si>
+    <t>4.5V</t>
+  </si>
+  <si>
+    <t>Temp +25</t>
+  </si>
+  <si>
+    <t>"1.65 sisäänmeno jännite 4.95V ulosjännite 3kertainen</t>
+  </si>
+  <si>
+    <t>D(a)</t>
+  </si>
+  <si>
+    <t>D(b)</t>
+  </si>
+  <si>
+    <t>D(c)</t>
+  </si>
+  <si>
+    <t>D(d)</t>
+  </si>
+  <si>
+    <t>D(e)</t>
+  </si>
+  <si>
+    <t>D(f)</t>
+  </si>
+  <si>
+    <t>f)Threshold m/s under 0.4m/s</t>
+  </si>
+  <si>
+    <t>Simulaatiosta voidaan todeta ja LCD näytöltä</t>
+  </si>
+  <si>
+    <t>+-0.4m/s'</t>
+  </si>
+  <si>
+    <t>noin 0.2m/s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d/m/;@"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/;@"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -245,180 +255,176 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -426,12 +432,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -460,7 +466,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -481,7 +487,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -532,7 +538,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -550,37 +556,36 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.17"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="6" width="50" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -606,11 +611,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>45708</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -632,11 +637,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>45708</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -658,11 +663,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="9">
         <v>45708</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -684,11 +689,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9">
         <v>45708</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -710,11 +715,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="9">
         <v>45708</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -734,11 +739,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="9">
         <v>45708</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -760,11 +765,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="11">
         <v>45708</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -786,11 +791,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="11">
         <v>45708</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -812,11 +817,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="11">
         <v>45708</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -838,11 +843,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="11">
         <v>45708</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -864,11 +869,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="11">
         <v>45708</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -890,81 +895,162 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="9">
+        <v>45750</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C15" s="9">
+        <v>45750</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C16" s="9">
+        <v>45750</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="C17" s="9">
+        <v>45750</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9">
+        <v>45750</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="G18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="14">
+        <v>45750</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Testivaatimukset_poytakirja.xlsx
+++ b/Testivaatimukset_poytakirja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cerz/Documents/gitrepos/s-asema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969AD83F-4537-934B-8705-82C3491880ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A059C62D-F5BF-4E46-983B-7B8AC6B111C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21540" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28700" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testitapaukset" sheetId="1" r:id="rId1"/>
@@ -210,10 +210,10 @@
     <t>Simulaatiosta voidaan todeta ja LCD näytöltä</t>
   </si>
   <si>
-    <t>+-0.4m/s'</t>
-  </si>
-  <si>
-    <t>noin 0.2m/s</t>
+    <t>+-0.3m/s'</t>
+  </si>
+  <si>
+    <t>noin -0.2m/s</t>
   </si>
 </sst>
 </file>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
